--- a/Code/Database/Database Design.xlsx
+++ b/Code/Database/Database Design.xlsx
@@ -798,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>

--- a/Code/Database/Database Design.xlsx
+++ b/Code/Database/Database Design.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernhard\Documents\GitHub\Zeon\Code\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Example Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -205,13 +210,16 @@
     <t>zenadia_as_6</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
     <t>audio</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -451,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,6 +516,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,7 +815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,7 +826,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,33 +843,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="I1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="34" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="Q1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -924,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -943,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>9</v>
@@ -962,7 +979,7 @@
         <v>33</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>9</v>
@@ -983,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -1004,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>9</v>
@@ -1023,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
@@ -1072,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>11</v>
@@ -1132,7 +1149,7 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -1141,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>11</v>
@@ -1150,19 +1167,19 @@
         <v>11</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
@@ -1201,28 +1218,28 @@
       <c r="O8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="36"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>11</v>
@@ -1235,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>9</v>
@@ -1274,16 +1291,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>11</v>
@@ -1297,7 +1314,7 @@
         <v>userID</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>9</v>
@@ -1316,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>9</v>
@@ -1334,7 +1351,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
@@ -1376,7 +1393,7 @@
         <v>userID</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>11</v>
@@ -1394,7 +1411,7 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -1437,7 +1454,7 @@
         <v>37</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>11</v>
@@ -1454,12 +1471,24 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="Q13" s="19" t="s">
         <v>38</v>
@@ -1482,24 +1511,12 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="Q14" s="20" t="s">
         <v>39</v>
@@ -1523,126 +1540,126 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>11</v>
@@ -1651,10 +1668,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>11</v>
@@ -1666,57 +1683,72 @@
         <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
@@ -1731,9 +1763,8 @@
       <c r="F27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I7:O7"/>
@@ -1759,23 +1790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="34" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="J1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -1831,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>47</v>
@@ -1870,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>58</v>
@@ -1909,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>48</v>
@@ -1948,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>49</v>
@@ -1987,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>50</v>
@@ -2017,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>59</v>
@@ -2047,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>60</v>
